--- a/public/assets/download-format/erp_user.xlsx
+++ b/public/assets/download-format/erp_user.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t xml:space="preserve">user_first_name</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">parent_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
   </si>
   <si>
     <t xml:space="preserve">Hello</t>
@@ -145,7 +148,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -417,12 +420,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -520,17 +527,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.30078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="22.01"/>
@@ -644,102 +651,102 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="n">
         <v>41187</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>9651970290</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>9776687022</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="S2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="U2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V2" s="0" t="n">
         <v>9561970290</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA2" s="0" t="n">
         <v>9561970290</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="kuvikash123@gmail.com"/>
     <hyperlink ref="P2" r:id="rId2" display="kuvikash123@gmail.com"/>
-    <hyperlink ref="Q2" r:id="rId3" display="kuvikash123@gmail.com"/>
-    <hyperlink ref="U2" r:id="rId4" display="kuvikash123@gmail.com"/>
-    <hyperlink ref="Z2" r:id="rId5" display="kuvikash123@gmail.com"/>
+    <hyperlink ref="U2" r:id="rId3" display="kuvikash123@gmail.com"/>
+    <hyperlink ref="Z2" r:id="rId4" display="kuvikash123@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.08263888888889" bottom="1.08263888888889" header="0.886111111111111" footer="0.886111111111111"/>

--- a/public/assets/download-format/erp_user.xlsx
+++ b/public/assets/download-format/erp_user.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Grade</t>
   </si>
   <si>
-    <t xml:space="preserve">Section</t>
+    <t xml:space="preserve">SectionMapping</t>
   </si>
   <si>
     <t xml:space="preserve">Subject</t>
@@ -146,11 +146,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy/dd/mm;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -174,95 +175,6 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
@@ -270,57 +182,15 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF6A8759"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -328,23 +198,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -368,64 +223,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -437,50 +241,37 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Accent 14" xfId="20"/>
-    <cellStyle name="Accent_20_1" xfId="21"/>
-    <cellStyle name="Accent_20_2" xfId="22"/>
-    <cellStyle name="Accent_20_3" xfId="23"/>
-    <cellStyle name="Bad 11" xfId="24"/>
-    <cellStyle name="Error 13" xfId="25"/>
-    <cellStyle name="Footnote 6" xfId="26"/>
-    <cellStyle name="Good 9" xfId="27"/>
-    <cellStyle name="Heading 3" xfId="28"/>
-    <cellStyle name="Heading_20_1" xfId="29"/>
-    <cellStyle name="Heading_20_2" xfId="30"/>
-    <cellStyle name="Hyperlink 7" xfId="31"/>
-    <cellStyle name="Neutral 10" xfId="32"/>
-    <cellStyle name="Note 5" xfId="33"/>
-    <cellStyle name="Status 8" xfId="34"/>
-    <cellStyle name="Text 4" xfId="35"/>
-    <cellStyle name="Warning 12" xfId="36"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF6A8759"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -488,7 +279,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -504,14 +295,14 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF6A8759"/>
+      <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -531,22 +322,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC1048518"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="40.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="28.57"/>
@@ -556,7 +348,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="25.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="21.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="23.42"/>
@@ -566,7 +358,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="22.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -741,6 +533,40 @@
         <v>145</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="4"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="4"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="kuvikash123@gmail.com"/>

--- a/public/assets/download-format/erp_user.xlsx
+++ b/public/assets/download-format/erp_user.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t xml:space="preserve">user_first_name</t>
   </si>
@@ -118,6 +118,9 @@
     <t xml:space="preserve">singh</t>
   </si>
   <si>
+    <t xml:space="preserve">+91-9651970290</t>
+  </si>
+  <si>
     <t xml:space="preserve">kuvikash123@gmail.com</t>
   </si>
   <si>
@@ -137,6 +140,12 @@
   </si>
   <si>
     <t xml:space="preserve">Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+91-9776687022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+91-9561970290</t>
   </si>
   <si>
     <t xml:space="preserve">Hii</t>
@@ -146,10 +155,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="yyyy/dd/mm;@"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="167" formatCode="YYYY/DD/MM;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -224,24 +234,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -318,22 +340,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC1048518"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:AC2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.43"/>
@@ -344,106 +366,106 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="28.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="34.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="37.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="23.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="22.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="25.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="21.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="23.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="23.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="22.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -457,47 +479,47 @@
       <c r="C2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="5" t="n">
         <v>41187</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>9651970290</v>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>30</v>
       </c>
       <c r="O2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>9776687022</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>37</v>
       </c>
       <c r="S2" s="0" t="s">
         <v>30</v>
@@ -506,13 +528,13 @@
         <v>31</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="0" t="n">
-        <v>9561970290</v>
+        <v>33</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X2" s="0" t="s">
         <v>30</v>
@@ -521,52 +543,48 @@
         <v>31</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>9561970290</v>
+        <v>33</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="4" t="n">
         <v>145</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="4"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
+      <c r="D3" s="6"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="4"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="D4" s="6"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="kuvikash123@gmail.com"/>

--- a/public/assets/download-format/erp_user.xlsx
+++ b/public/assets/download-format/erp_user.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t xml:space="preserve">user_first_name</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">designation</t>
   </si>
   <si>
     <t xml:space="preserve">Hello</t>
@@ -158,8 +164,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
-    <numFmt numFmtId="167" formatCode="YYYY/DD/MM;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy/dd/mm;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -340,17 +346,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE2" activeCellId="0" sqref="AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="22.01"/>
@@ -468,91 +474,103 @@
       <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>41187</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="0" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="U2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="0" t="s">
+      <c r="X2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="Z2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>145</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -594,7 +612,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.08263888888889" bottom="1.08263888888889" header="0.886111111111111" footer="0.886111111111111"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
